--- a/src/testTradingPost.xlsx
+++ b/src/testTradingPost.xlsx
@@ -655,7 +655,7 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -760,6 +760,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9E35D"/>
+        <bgColor rgb="FFF9E35D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD9507"/>
+        <bgColor rgb="FFAD9507"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -1171,7 +1195,7 @@
     </xf>
     <xf numFmtId="0" fontId="82" fillId="17" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2037,6 +2061,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="18" fillId="19" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="20" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="20" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="21" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="19" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="19" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="22" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="20" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="21" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3207,13 +3261,41 @@
         </is>
       </c>
       <c r="B9" s="212" t="n"/>
-      <c r="C9" s="40" t="n"/>
-      <c r="D9" s="40" t="n"/>
-      <c r="E9" s="40" t="n"/>
-      <c r="F9" s="40" t="n"/>
-      <c r="G9" s="40" t="n"/>
-      <c r="H9" s="40" t="n"/>
-      <c r="I9" s="40" t="n"/>
+      <c r="C9" s="40" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="D9" s="40" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="E9" s="40" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="F9" s="40" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="G9" s="40" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="H9" s="40" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="I9" s="40" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
       <c r="L9" s="230" t="inlineStr">
         <is>
           <t>Signal</t>
@@ -3299,33 +3381,40 @@
         </is>
       </c>
       <c r="B11" s="141" t="n"/>
-      <c r="C11" s="209">
-        <f>+[1]Sheet1!$R$6</f>
-        <v/>
-      </c>
-      <c r="D11" s="210">
-        <f>+[1]Sheet1!$R$7</f>
-        <v/>
-      </c>
-      <c r="E11" s="209">
-        <f>+[1]Sheet1!$N$8</f>
-        <v/>
-      </c>
-      <c r="F11" s="211">
-        <f>+[1]Sheet1!$N$9</f>
-        <v/>
-      </c>
-      <c r="G11" s="209">
-        <f>+[1]Sheet1!$R$11</f>
-        <v/>
-      </c>
-      <c r="H11" s="210">
-        <f>+[1]Sheet1!$R$12</f>
-        <v/>
-      </c>
-      <c r="I11" s="210">
-        <f>+[1]Sheet1!$R$13</f>
-        <v/>
+      <c r="C11" s="289" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="D11" s="290" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="E11" s="289" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="F11" s="291" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="G11" s="289" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="H11" s="292" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I11" s="290" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L11" s="230" t="inlineStr">
         <is>
@@ -3360,25 +3449,21 @@
         </is>
       </c>
       <c r="B12" s="140" t="n"/>
-      <c r="C12" s="78" t="n"/>
-      <c r="D12" s="78">
-        <f>+[1]Sheet1!$Z$7</f>
-        <v/>
-      </c>
-      <c r="E12" s="78" t="n"/>
-      <c r="F12" s="78">
-        <f>+[1]Sheet1!$X$9</f>
-        <v/>
-      </c>
-      <c r="G12" s="78" t="n"/>
-      <c r="H12" s="78">
-        <f>+[1]Sheet1!$Z$12</f>
-        <v/>
-      </c>
-      <c r="I12" s="78">
-        <f>+[1]Sheet1!$Z$13</f>
-        <v/>
-      </c>
+      <c r="C12" s="78" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="D12" s="78" t="inlineStr"/>
+      <c r="E12" s="78" t="n">
+        <v>248.77</v>
+      </c>
+      <c r="F12" s="78" t="inlineStr"/>
+      <c r="G12" s="78" t="n">
+        <v>154.48</v>
+      </c>
+      <c r="H12" s="78" t="n">
+        <v>107.14</v>
+      </c>
+      <c r="I12" s="78" t="inlineStr"/>
       <c r="L12" s="273" t="inlineStr">
         <is>
           <t>Current</t>
@@ -3421,25 +3506,21 @@
         </is>
       </c>
       <c r="B13" s="140" t="n"/>
-      <c r="C13" s="79" t="n"/>
-      <c r="D13" s="79">
-        <f>+[1]Sheet1!$AA$7</f>
-        <v/>
-      </c>
-      <c r="E13" s="79" t="n"/>
-      <c r="F13" s="79">
-        <f>+[1]Sheet1!$Y$9</f>
-        <v/>
-      </c>
-      <c r="G13" s="79" t="n"/>
-      <c r="H13" s="79">
-        <f>+[1]Sheet1!$AA$12</f>
-        <v/>
-      </c>
-      <c r="I13" s="79">
-        <f>+[1]Sheet1!$AA$13</f>
-        <v/>
-      </c>
+      <c r="C13" s="79" t="n">
+        <v>91.37</v>
+      </c>
+      <c r="D13" s="79" t="inlineStr"/>
+      <c r="E13" s="79" t="n">
+        <v>251.95</v>
+      </c>
+      <c r="F13" s="79" t="inlineStr"/>
+      <c r="G13" s="79" t="n">
+        <v>153.27</v>
+      </c>
+      <c r="H13" s="79" t="n">
+        <v>112.94</v>
+      </c>
+      <c r="I13" s="79" t="inlineStr"/>
       <c r="L13" s="230" t="n"/>
       <c r="T13" s="86" t="n"/>
     </row>
@@ -3451,25 +3532,25 @@
       </c>
       <c r="B14" s="142" t="n"/>
       <c r="C14" s="120" t="n">
-        <v>91.67</v>
+        <v>91.91</v>
       </c>
       <c r="D14" s="81" t="n">
-        <v>30.89</v>
+        <v>31.39</v>
       </c>
       <c r="E14" s="82" t="n">
-        <v>276.76</v>
+        <v>277.3</v>
       </c>
       <c r="F14" s="81" t="n">
-        <v>192.71</v>
+        <v>195.57</v>
       </c>
       <c r="G14" s="83" t="n">
-        <v>159.48</v>
+        <v>161.25</v>
       </c>
       <c r="H14" s="80" t="n">
-        <v>112.09</v>
+        <v>112.24</v>
       </c>
       <c r="I14" s="82" t="n">
-        <v>80.8</v>
+        <v>81.2</v>
       </c>
       <c r="L14" s="235" t="inlineStr">
         <is>
@@ -3848,13 +3929,41 @@
     <row r="19" ht="24" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A19" s="18" t="n"/>
       <c r="B19" s="215" t="n"/>
-      <c r="C19" s="216" t="n"/>
-      <c r="D19" s="217" t="n"/>
-      <c r="E19" s="218" t="n"/>
-      <c r="F19" s="217" t="n"/>
-      <c r="G19" s="219" t="n"/>
-      <c r="H19" s="220" t="n"/>
-      <c r="I19" s="216" t="n"/>
+      <c r="C19" s="216" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="D19" s="217" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="E19" s="218" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="F19" s="217" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="G19" s="219" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="H19" s="220" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="I19" s="216" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
       <c r="J19" s="281" t="n"/>
       <c r="K19" s="281" t="n"/>
       <c r="L19" s="230" t="inlineStr">
@@ -3960,33 +4069,40 @@
         </is>
       </c>
       <c r="B21" s="142" t="n"/>
-      <c r="C21" s="162">
-        <f>+[1]Sheet1!$R$14</f>
-        <v/>
-      </c>
-      <c r="D21" s="115">
-        <f>+[1]Sheet1!$R$16</f>
-        <v/>
-      </c>
-      <c r="E21" s="159">
-        <f>+[1]Sheet1!$R$17</f>
-        <v/>
-      </c>
-      <c r="F21" s="164">
-        <f>+[1]Sheet1!$R$18</f>
-        <v/>
-      </c>
-      <c r="G21" s="159">
-        <f>+[1]Sheet1!$R$19</f>
-        <v/>
-      </c>
-      <c r="H21" s="115">
-        <f>+[1]Sheet1!$N$21</f>
-        <v/>
-      </c>
-      <c r="I21" s="159">
-        <f>+[1]Sheet1!$R$22</f>
-        <v/>
+      <c r="C21" s="293" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="D21" s="294" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="E21" s="295" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="F21" s="296" t="inlineStr">
+        <is>
+          <t>!SELL!</t>
+        </is>
+      </c>
+      <c r="G21" s="295" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="H21" s="297" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I21" s="295" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="J21" s="281" t="n"/>
       <c r="K21" s="281" t="n"/>
@@ -4017,27 +4133,24 @@
         </is>
       </c>
       <c r="B22" s="142" t="n"/>
-      <c r="C22" s="78">
-        <f>+[1]Sheet1!$Z$14</f>
-        <v/>
-      </c>
-      <c r="D22" s="78" t="n"/>
-      <c r="E22" s="78">
-        <f>+[1]Sheet1!$Z$17</f>
-        <v/>
-      </c>
-      <c r="F22" s="78">
-        <f>+[1]Sheet1!$Z$18</f>
-        <v/>
-      </c>
-      <c r="G22" s="78">
-        <f>+[1]Sheet1!$Z$19</f>
-        <v/>
-      </c>
-      <c r="H22" s="78" t="n"/>
-      <c r="I22" s="78">
-        <f>+[1]Sheet1!$Z$22</f>
-        <v/>
+      <c r="C22" s="78" t="n">
+        <v>40.05</v>
+      </c>
+      <c r="D22" s="78" t="n">
+        <v>242.07</v>
+      </c>
+      <c r="E22" s="78" t="n">
+        <v>187.18</v>
+      </c>
+      <c r="F22" s="78" t="n">
+        <v>384.65</v>
+      </c>
+      <c r="G22" s="78" t="n">
+        <v>173.58</v>
+      </c>
+      <c r="H22" s="78" t="inlineStr"/>
+      <c r="I22" s="78" t="n">
+        <v>376.75</v>
       </c>
       <c r="J22" s="281" t="n"/>
       <c r="K22" s="281" t="n"/>
@@ -4100,27 +4213,24 @@
         </is>
       </c>
       <c r="B23" s="142" t="n"/>
-      <c r="C23" s="79">
-        <f>+[1]Sheet1!$AA$14</f>
-        <v/>
-      </c>
-      <c r="D23" s="79" t="n"/>
-      <c r="E23" s="79">
-        <f>+[1]Sheet1!$AA$17</f>
-        <v/>
-      </c>
-      <c r="F23" s="79">
-        <f>+[1]Sheet1!$AA$18</f>
-        <v/>
-      </c>
-      <c r="G23" s="79">
-        <f>+[1]Sheet1!$AA$19</f>
-        <v/>
-      </c>
-      <c r="H23" s="79" t="n"/>
-      <c r="I23" s="79">
-        <f>+[1]Sheet1!$AA$22</f>
-        <v/>
+      <c r="C23" s="79" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="D23" s="79" t="n">
+        <v>241.02</v>
+      </c>
+      <c r="E23" s="79" t="n">
+        <v>184.33</v>
+      </c>
+      <c r="F23" s="79" t="n">
+        <v>418.12</v>
+      </c>
+      <c r="G23" s="79" t="n">
+        <v>172.08</v>
+      </c>
+      <c r="H23" s="79" t="inlineStr"/>
+      <c r="I23" s="79" t="n">
+        <v>383.82</v>
       </c>
       <c r="J23" s="281" t="n"/>
       <c r="K23" s="281" t="n"/>
@@ -4188,25 +4298,25 @@
       </c>
       <c r="B24" s="142" t="n"/>
       <c r="C24" s="82" t="n">
-        <v>41.3</v>
+        <v>41.94</v>
       </c>
       <c r="D24" s="81" t="n">
-        <v>243.69</v>
+        <v>244.53</v>
       </c>
       <c r="E24" s="82" t="n">
-        <v>199.44</v>
+        <v>201.18</v>
       </c>
       <c r="F24" s="81" t="n">
-        <v>434.09</v>
+        <v>439.56</v>
       </c>
       <c r="G24" s="82" t="n">
-        <v>178.69</v>
+        <v>179.37</v>
       </c>
       <c r="H24" s="84" t="n">
-        <v>83.23</v>
+        <v>83.92</v>
       </c>
       <c r="I24" s="80" t="n">
-        <v>401.29</v>
+        <v>405.25</v>
       </c>
       <c r="J24" s="281" t="n"/>
       <c r="K24" s="281" t="n"/>
@@ -4533,13 +4643,41 @@
     <row r="29" ht="17" customHeight="1" s="288" thickBot="1">
       <c r="A29" s="33" t="n"/>
       <c r="B29" s="29" t="n"/>
-      <c r="C29" s="45" t="n"/>
-      <c r="D29" s="41" t="n"/>
-      <c r="E29" s="46" t="n"/>
-      <c r="F29" s="45" t="n"/>
-      <c r="G29" s="44" t="n"/>
-      <c r="H29" s="41" t="n"/>
-      <c r="I29" s="44" t="n"/>
+      <c r="C29" s="45" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="D29" s="41" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="E29" s="46" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="F29" s="45" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="G29" s="44" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="H29" s="41" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
+      <c r="I29" s="44" t="inlineStr">
+        <is>
+          <t>06/19</t>
+        </is>
+      </c>
       <c r="L29" s="232" t="n"/>
       <c r="P29" s="228" t="inlineStr">
         <is>
@@ -4583,33 +4721,40 @@
         </is>
       </c>
       <c r="B31" s="30" t="n"/>
-      <c r="C31" s="159">
-        <f>+[1]Sheet1!$R$23</f>
-        <v/>
-      </c>
-      <c r="D31" s="115">
-        <f>+[1]Sheet1!$R$24</f>
-        <v/>
-      </c>
-      <c r="E31" s="161">
-        <f>+[1]Sheet1!$N$26</f>
-        <v/>
-      </c>
-      <c r="F31" s="159">
-        <f>+[1]Sheet1!$R$27</f>
-        <v/>
-      </c>
-      <c r="G31" s="159">
-        <f>+[1]Sheet1!$R$28</f>
-        <v/>
-      </c>
-      <c r="H31" s="161">
-        <f>+[1]Sheet1!$N$29</f>
-        <v/>
-      </c>
-      <c r="I31" s="159">
-        <f>+[1]Sheet1!$R$30</f>
-        <v/>
+      <c r="C31" s="295" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="D31" s="297" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="E31" s="297" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="F31" s="295" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="G31" s="295" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="H31" s="298" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I31" s="295" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L31" s="253" t="inlineStr">
         <is>
@@ -4636,30 +4781,22 @@
         </is>
       </c>
       <c r="B32" s="28" t="n"/>
-      <c r="C32" s="78">
-        <f>+[1]Sheet1!$Z$23</f>
-        <v/>
-      </c>
-      <c r="D32" s="78" t="n"/>
-      <c r="E32" s="78">
-        <f>+[1]Sheet1!$X$26</f>
-        <v/>
-      </c>
-      <c r="F32" s="78">
-        <f>+[1]Sheet1!$Z$27</f>
-        <v/>
-      </c>
-      <c r="G32" s="78">
-        <f>+[1]Sheet1!$Z$28</f>
-        <v/>
-      </c>
-      <c r="H32" s="78">
-        <f>+[1]Sheet1!$X$29</f>
-        <v/>
-      </c>
-      <c r="I32" s="78">
-        <f>+[1]Sheet1!$Z$30</f>
-        <v/>
+      <c r="C32" s="78" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D32" s="78" t="inlineStr"/>
+      <c r="E32" s="78" t="inlineStr"/>
+      <c r="F32" s="78" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="G32" s="78" t="n">
+        <v>203.78</v>
+      </c>
+      <c r="H32" s="78" t="n">
+        <v>141.59</v>
+      </c>
+      <c r="I32" s="78" t="n">
+        <v>72.20999999999999</v>
       </c>
       <c r="L32" s="254" t="inlineStr">
         <is>
@@ -4686,30 +4823,22 @@
         </is>
       </c>
       <c r="B33" s="28" t="n"/>
-      <c r="C33" s="79">
-        <f>+[1]Sheet1!$AA$23</f>
-        <v/>
-      </c>
-      <c r="D33" s="79" t="n"/>
-      <c r="E33" s="79">
-        <f>+[1]Sheet1!$Y$26</f>
-        <v/>
-      </c>
-      <c r="F33" s="79">
-        <f>+[1]Sheet1!$AA$27</f>
-        <v/>
-      </c>
-      <c r="G33" s="79">
-        <f>+[1]Sheet1!$AA$28</f>
-        <v/>
-      </c>
-      <c r="H33" s="79">
-        <f>+[1]Sheet1!$Y$29</f>
-        <v/>
-      </c>
-      <c r="I33" s="79">
-        <f>+[1]Sheet1!$AA$30</f>
-        <v/>
+      <c r="C33" s="79" t="n">
+        <v>101.35</v>
+      </c>
+      <c r="D33" s="79" t="inlineStr"/>
+      <c r="E33" s="79" t="inlineStr"/>
+      <c r="F33" s="79" t="n">
+        <v>54.11</v>
+      </c>
+      <c r="G33" s="79" t="n">
+        <v>207.12</v>
+      </c>
+      <c r="H33" s="79" t="n">
+        <v>147.24</v>
+      </c>
+      <c r="I33" s="79" t="n">
+        <v>71.98999999999999</v>
       </c>
       <c r="L33" s="255" t="inlineStr">
         <is>
@@ -4737,25 +4866,25 @@
       </c>
       <c r="B34" s="30" t="n"/>
       <c r="C34" s="96" t="n">
-        <v>105.32</v>
+        <v>106.2</v>
       </c>
       <c r="D34" s="98" t="n">
-        <v>72.38</v>
+        <v>72.73</v>
       </c>
       <c r="E34" s="99" t="n">
-        <v>48.57</v>
+        <v>48.64</v>
       </c>
       <c r="F34" s="96" t="n">
-        <v>57</v>
+        <v>57.62</v>
       </c>
       <c r="G34" s="98" t="n">
-        <v>217.44</v>
+        <v>219.26</v>
       </c>
       <c r="H34" s="100" t="n">
-        <v>144.2</v>
+        <v>146.24</v>
       </c>
       <c r="I34" s="98" t="n">
-        <v>78.804</v>
+        <v>79.92</v>
       </c>
       <c r="L34" s="260" t="n"/>
       <c r="M34" s="261" t="n"/>

--- a/src/testTradingPost.xlsx
+++ b/src/testTradingPost.xlsx
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D8" s="68" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E8" s="68" t="inlineStr">
@@ -3718,12 +3718,12 @@
       <c r="B10" s="238" t="n"/>
       <c r="C10" s="76" t="inlineStr">
         <is>
-          <t>06/20</t>
+          <t>06/02</t>
         </is>
       </c>
       <c r="D10" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/25</t>
         </is>
       </c>
       <c r="E10" s="76" t="inlineStr">
@@ -3844,12 +3844,12 @@
         </is>
       </c>
       <c r="B12" s="239" t="n"/>
-      <c r="C12" s="240" t="inlineStr">
+      <c r="C12" s="79" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="D12" s="79" t="inlineStr">
+      <c r="D12" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
@@ -3909,7 +3909,9 @@
       </c>
       <c r="B13" s="71" t="n"/>
       <c r="C13" s="241" t="n"/>
-      <c r="D13" s="241" t="n"/>
+      <c r="D13" s="241" t="n">
+        <v>29.29</v>
+      </c>
       <c r="E13" s="241" t="n">
         <v>249.41</v>
       </c>
@@ -3951,7 +3953,9 @@
       </c>
       <c r="B14" s="71" t="n"/>
       <c r="C14" s="242" t="n"/>
-      <c r="D14" s="242" t="n"/>
+      <c r="D14" s="242" t="n">
+        <v>32.65</v>
+      </c>
       <c r="E14" s="242" t="n">
         <v>257.15</v>
       </c>
@@ -3993,10 +3997,10 @@
       </c>
       <c r="B15" s="243" t="n"/>
       <c r="C15" s="244" t="n">
-        <v>-1</v>
+        <v>91.38</v>
       </c>
       <c r="D15" s="245" t="n">
-        <v>31.41</v>
+        <v>29.79</v>
       </c>
       <c r="E15" s="245" t="n">
         <v>263.01</v>

--- a/src/testTradingPost.xlsx
+++ b/src/testTradingPost.xlsx
@@ -486,8 +486,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor indexed="14"/>
+        <fgColor indexed="16"/>
+        <bgColor indexed="16"/>
       </patternFill>
     </fill>
   </fills>
@@ -3594,12 +3594,12 @@
       <c r="B8" s="67" t="n"/>
       <c r="C8" s="68" t="inlineStr">
         <is>
-          <t>Hi. Yield</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D8" s="68" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="E8" s="68" t="inlineStr">
@@ -3718,12 +3718,12 @@
       <c r="B10" s="238" t="n"/>
       <c r="C10" s="76" t="inlineStr">
         <is>
+          <t>06/25</t>
+        </is>
+      </c>
+      <c r="D10" s="76" t="inlineStr">
+        <is>
           <t>06/02</t>
-        </is>
-      </c>
-      <c r="D10" s="76" t="inlineStr">
-        <is>
-          <t>06/25</t>
         </is>
       </c>
       <c r="E10" s="76" t="inlineStr">
@@ -3844,12 +3844,12 @@
         </is>
       </c>
       <c r="B12" s="239" t="n"/>
-      <c r="C12" s="79" t="inlineStr">
+      <c r="C12" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="D12" s="240" t="inlineStr">
+      <c r="D12" s="79" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
@@ -3908,10 +3908,10 @@
         </is>
       </c>
       <c r="B13" s="71" t="n"/>
-      <c r="C13" s="241" t="n"/>
-      <c r="D13" s="241" t="n">
-        <v>29.29</v>
-      </c>
+      <c r="C13" s="241" t="n">
+        <v>90.86999999999999</v>
+      </c>
+      <c r="D13" s="241" t="n"/>
       <c r="E13" s="241" t="n">
         <v>249.41</v>
       </c>
@@ -3952,10 +3952,10 @@
         </is>
       </c>
       <c r="B14" s="71" t="n"/>
-      <c r="C14" s="242" t="n"/>
-      <c r="D14" s="242" t="n">
-        <v>32.65</v>
-      </c>
+      <c r="C14" s="242" t="n">
+        <v>90.89</v>
+      </c>
+      <c r="D14" s="242" t="n"/>
       <c r="E14" s="242" t="n">
         <v>257.15</v>
       </c>
@@ -3997,10 +3997,10 @@
       </c>
       <c r="B15" s="243" t="n"/>
       <c r="C15" s="244" t="n">
-        <v>91.38</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D15" s="245" t="n">
-        <v>29.79</v>
+        <v>31.41</v>
       </c>
       <c r="E15" s="245" t="n">
         <v>263.01</v>

--- a/src/testTradingPost.xlsx
+++ b/src/testTradingPost.xlsx
@@ -486,8 +486,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
-        <bgColor indexed="16"/>
+        <fgColor indexed="14"/>
+        <bgColor indexed="14"/>
       </patternFill>
     </fill>
   </fills>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B13" s="71" t="n"/>
       <c r="C13" s="241" t="n">
-        <v>90.86999999999999</v>
+        <v>91.14</v>
       </c>
       <c r="D13" s="241" t="n"/>
       <c r="E13" s="241" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B14" s="71" t="n"/>
       <c r="C14" s="242" t="n">
-        <v>90.89</v>
+        <v>91.16</v>
       </c>
       <c r="D14" s="242" t="n"/>
       <c r="E14" s="242" t="n">

--- a/src/testTradingPost.xlsx
+++ b/src/testTradingPost.xlsx
@@ -3718,7 +3718,7 @@
       <c r="B10" s="238" t="n"/>
       <c r="C10" s="76" t="inlineStr">
         <is>
-          <t>06/25</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="D10" s="76" t="inlineStr">

--- a/src/testTradingPost.xlsx
+++ b/src/testTradingPost.xlsx
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B15" s="243" t="n"/>
       <c r="C15" s="244" t="n">
-        <v>90.90000000000001</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="245" t="n">
         <v>31.41</v>

--- a/src/testTradingPost.xlsx
+++ b/src/testTradingPost.xlsx
@@ -411,7 +411,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -490,6 +490,12 @@
         <bgColor indexed="14"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor indexed="16"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -1297,7 +1303,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2017,6 +2023,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="27" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3599,12 +3608,12 @@
       </c>
       <c r="D8" s="68" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E8" s="68" t="inlineStr">
         <is>
-          <t>Consum.</t>
+          <t>name</t>
         </is>
       </c>
       <c r="F8" s="68" t="inlineStr">
@@ -3718,17 +3727,17 @@
       <c r="B10" s="238" t="n"/>
       <c r="C10" s="76" t="inlineStr">
         <is>
-          <t>06/26</t>
+          <t>06/27</t>
         </is>
       </c>
       <c r="D10" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/27</t>
         </is>
       </c>
       <c r="E10" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/27</t>
         </is>
       </c>
       <c r="F10" s="76" t="inlineStr">
@@ -3849,12 +3858,12 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="D12" s="79" t="inlineStr">
+      <c r="D12" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="E12" s="80" t="inlineStr">
+      <c r="E12" s="241" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
@@ -3908,21 +3917,23 @@
         </is>
       </c>
       <c r="B13" s="71" t="n"/>
-      <c r="C13" s="241" t="n">
-        <v>91.14</v>
-      </c>
-      <c r="D13" s="241" t="n"/>
-      <c r="E13" s="241" t="n">
-        <v>249.41</v>
-      </c>
-      <c r="F13" s="241" t="n"/>
-      <c r="G13" s="241" t="n">
+      <c r="C13" s="242" t="n">
+        <v>91.08999999999999</v>
+      </c>
+      <c r="D13" s="242" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="E13" s="242" t="n">
+        <v>258.33</v>
+      </c>
+      <c r="F13" s="242" t="n"/>
+      <c r="G13" s="242" t="n">
         <v>154.54</v>
       </c>
-      <c r="H13" s="241" t="n">
+      <c r="H13" s="242" t="n">
         <v>110.98</v>
       </c>
-      <c r="I13" s="241" t="n"/>
+      <c r="I13" s="242" t="n"/>
       <c r="J13" s="10" t="n"/>
       <c r="K13" s="11" t="n"/>
       <c r="L13" s="11" t="n"/>
@@ -3952,21 +3963,23 @@
         </is>
       </c>
       <c r="B14" s="71" t="n"/>
-      <c r="C14" s="242" t="n">
-        <v>91.16</v>
-      </c>
-      <c r="D14" s="242" t="n"/>
-      <c r="E14" s="242" t="n">
-        <v>257.15</v>
-      </c>
-      <c r="F14" s="242" t="n"/>
-      <c r="G14" s="242" t="n">
+      <c r="C14" s="243" t="n">
+        <v>91.37</v>
+      </c>
+      <c r="D14" s="243" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="E14" s="243" t="n">
+        <v>276.24</v>
+      </c>
+      <c r="F14" s="243" t="n"/>
+      <c r="G14" s="243" t="n">
         <v>155.02</v>
       </c>
-      <c r="H14" s="242" t="n">
+      <c r="H14" s="243" t="n">
         <v>112.86</v>
       </c>
-      <c r="I14" s="242" t="n"/>
+      <c r="I14" s="243" t="n"/>
       <c r="J14" s="10" t="n"/>
       <c r="K14" s="11" t="n"/>
       <c r="L14" s="11" t="n"/>
@@ -3995,26 +4008,26 @@
           <t>CURRENT:</t>
         </is>
       </c>
-      <c r="B15" s="243" t="n"/>
-      <c r="C15" s="244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="245" t="n">
-        <v>31.41</v>
-      </c>
-      <c r="E15" s="245" t="n">
-        <v>263.01</v>
-      </c>
-      <c r="F15" s="245" t="n">
+      <c r="B15" s="244" t="n"/>
+      <c r="C15" s="245" t="n">
+        <v>91.34</v>
+      </c>
+      <c r="D15" s="246" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="E15" s="246" t="n">
+        <v>278.78</v>
+      </c>
+      <c r="F15" s="246" t="n">
         <v>192.8</v>
       </c>
-      <c r="G15" s="245" t="n">
+      <c r="G15" s="246" t="n">
         <v>157.27</v>
       </c>
-      <c r="H15" s="245" t="n">
+      <c r="H15" s="246" t="n">
         <v>110.7</v>
       </c>
-      <c r="I15" s="245" t="n">
+      <c r="I15" s="246" t="n">
         <v>79.29000000000001</v>
       </c>
       <c r="J15" s="10" t="n"/>
@@ -4045,7 +4058,7 @@
           <t>LIMIT:</t>
         </is>
       </c>
-      <c r="B16" s="246" t="n"/>
+      <c r="B16" s="247" t="n"/>
       <c r="C16" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve">1 !SELL!  </t>
@@ -4059,8 +4072,8 @@
       <c r="E16" s="95" t="n"/>
       <c r="F16" s="95" t="n"/>
       <c r="G16" s="95" t="n"/>
-      <c r="H16" s="247" t="n"/>
-      <c r="I16" s="246" t="n"/>
+      <c r="H16" s="248" t="n"/>
+      <c r="I16" s="247" t="n"/>
       <c r="J16" s="97" t="n"/>
       <c r="K16" s="98" t="n"/>
       <c r="L16" s="15" t="n"/>
@@ -4089,7 +4102,7 @@
           <t>ETF:</t>
         </is>
       </c>
-      <c r="B17" s="248" t="n"/>
+      <c r="B17" s="249" t="n"/>
       <c r="C17" s="63" t="inlineStr">
         <is>
           <t>VWO</t>
@@ -4149,7 +4162,7 @@
     </row>
     <row r="18" ht="20.25" customHeight="1" s="232">
       <c r="A18" s="66" t="n"/>
-      <c r="B18" s="249" t="n"/>
+      <c r="B18" s="250" t="n"/>
       <c r="C18" s="103" t="inlineStr">
         <is>
           <t>Emerging</t>
@@ -4213,7 +4226,7 @@
           <t>NAME:</t>
         </is>
       </c>
-      <c r="B19" s="249" t="n"/>
+      <c r="B19" s="250" t="n"/>
       <c r="C19" s="72" t="inlineStr">
         <is>
           <t>Markets</t>
@@ -4277,7 +4290,7 @@
           <t>DATE:</t>
         </is>
       </c>
-      <c r="B20" s="249" t="n"/>
+      <c r="B20" s="250" t="n"/>
       <c r="C20" s="76" t="inlineStr">
         <is>
           <t>06/02</t>
@@ -4341,7 +4354,7 @@
           <t>TIME:</t>
         </is>
       </c>
-      <c r="B21" s="249" t="n"/>
+      <c r="B21" s="250" t="n"/>
       <c r="C21" s="78" t="inlineStr">
         <is>
           <t>@4:00</t>
@@ -4405,7 +4418,7 @@
           <t>SIGNAL:</t>
         </is>
       </c>
-      <c r="B22" s="249" t="n"/>
+      <c r="B22" s="250" t="n"/>
       <c r="C22" s="79" t="inlineStr">
         <is>
           <t>HOLD</t>
@@ -4469,16 +4482,16 @@
           <t>TRADING</t>
         </is>
       </c>
-      <c r="B23" s="249" t="n"/>
-      <c r="C23" s="241" t="n"/>
-      <c r="D23" s="241" t="n"/>
-      <c r="E23" s="241" t="n"/>
-      <c r="F23" s="241" t="n">
+      <c r="B23" s="250" t="n"/>
+      <c r="C23" s="242" t="n"/>
+      <c r="D23" s="242" t="n"/>
+      <c r="E23" s="242" t="n"/>
+      <c r="F23" s="242" t="n">
         <v>386.79</v>
       </c>
-      <c r="G23" s="241" t="n"/>
-      <c r="H23" s="241" t="n"/>
-      <c r="I23" s="241" t="n">
+      <c r="G23" s="242" t="n"/>
+      <c r="H23" s="242" t="n"/>
+      <c r="I23" s="242" t="n">
         <v>377.77</v>
       </c>
       <c r="J23" s="10" t="n"/>
@@ -4509,16 +4522,16 @@
           <t>RANGE:</t>
         </is>
       </c>
-      <c r="B24" s="249" t="n"/>
-      <c r="C24" s="242" t="n"/>
-      <c r="D24" s="242" t="n"/>
-      <c r="E24" s="242" t="n"/>
-      <c r="F24" s="242" t="n">
+      <c r="B24" s="250" t="n"/>
+      <c r="C24" s="243" t="n"/>
+      <c r="D24" s="243" t="n"/>
+      <c r="E24" s="243" t="n"/>
+      <c r="F24" s="243" t="n">
         <v>420.94</v>
       </c>
-      <c r="G24" s="242" t="n"/>
-      <c r="H24" s="242" t="n"/>
-      <c r="I24" s="242" t="n">
+      <c r="G24" s="243" t="n"/>
+      <c r="H24" s="243" t="n"/>
+      <c r="I24" s="243" t="n">
         <v>388.34</v>
       </c>
       <c r="J24" s="10" t="n"/>
@@ -4549,26 +4562,26 @@
           <t>CURRENT:</t>
         </is>
       </c>
-      <c r="B25" s="243" t="n"/>
-      <c r="C25" s="245" t="n">
+      <c r="B25" s="244" t="n"/>
+      <c r="C25" s="246" t="n">
         <v>40.35</v>
       </c>
-      <c r="D25" s="245" t="n">
+      <c r="D25" s="246" t="n">
         <v>241.14</v>
       </c>
-      <c r="E25" s="245" t="n">
+      <c r="E25" s="246" t="n">
         <v>192.55</v>
       </c>
-      <c r="F25" s="245" t="n">
+      <c r="F25" s="246" t="n">
         <v>424.1</v>
       </c>
-      <c r="G25" s="245" t="n">
+      <c r="G25" s="246" t="n">
         <v>172.98</v>
       </c>
-      <c r="H25" s="245" t="n">
+      <c r="H25" s="246" t="n">
         <v>81.95999999999999</v>
       </c>
-      <c r="I25" s="245" t="n">
+      <c r="I25" s="246" t="n">
         <v>393.26</v>
       </c>
       <c r="J25" s="10" t="n"/>
@@ -5016,19 +5029,19 @@
         </is>
       </c>
       <c r="B33" s="71" t="n"/>
-      <c r="C33" s="241" t="n">
+      <c r="C33" s="242" t="n">
         <v>97.77</v>
       </c>
-      <c r="D33" s="241" t="n"/>
-      <c r="E33" s="241" t="n"/>
-      <c r="F33" s="241" t="n"/>
-      <c r="G33" s="241" t="n">
+      <c r="D33" s="242" t="n"/>
+      <c r="E33" s="242" t="n"/>
+      <c r="F33" s="242" t="n"/>
+      <c r="G33" s="242" t="n">
         <v>204.306</v>
       </c>
-      <c r="H33" s="241" t="n">
+      <c r="H33" s="242" t="n">
         <v>142.13</v>
       </c>
-      <c r="I33" s="241" t="n">
+      <c r="I33" s="242" t="n">
         <v>72.13</v>
       </c>
       <c r="J33" s="10" t="n"/>
@@ -5060,19 +5073,19 @@
         </is>
       </c>
       <c r="B34" s="71" t="n"/>
-      <c r="C34" s="242" t="n">
+      <c r="C34" s="243" t="n">
         <v>102.32</v>
       </c>
-      <c r="D34" s="242" t="n"/>
-      <c r="E34" s="242" t="n"/>
-      <c r="F34" s="242" t="n"/>
-      <c r="G34" s="242" t="n">
+      <c r="D34" s="243" t="n"/>
+      <c r="E34" s="243" t="n"/>
+      <c r="F34" s="243" t="n"/>
+      <c r="G34" s="243" t="n">
         <v>209.77</v>
       </c>
-      <c r="H34" s="242" t="n">
+      <c r="H34" s="243" t="n">
         <v>147.17</v>
       </c>
-      <c r="I34" s="242" t="n">
+      <c r="I34" s="243" t="n">
         <v>72.73</v>
       </c>
       <c r="J34" s="10" t="n"/>
@@ -5103,26 +5116,26 @@
           <t>CURRENT:</t>
         </is>
       </c>
-      <c r="B35" s="250" t="n"/>
-      <c r="C35" s="245" t="n">
+      <c r="B35" s="251" t="n"/>
+      <c r="C35" s="246" t="n">
         <v>103.16</v>
       </c>
-      <c r="D35" s="245" t="n">
+      <c r="D35" s="246" t="n">
         <v>72.64</v>
       </c>
-      <c r="E35" s="245" t="n">
+      <c r="E35" s="246" t="n">
         <v>48.74</v>
       </c>
-      <c r="F35" s="245" t="n">
+      <c r="F35" s="246" t="n">
         <v>55.94</v>
       </c>
-      <c r="G35" s="245" t="n">
+      <c r="G35" s="246" t="n">
         <v>212.71</v>
       </c>
-      <c r="H35" s="245" t="n">
+      <c r="H35" s="246" t="n">
         <v>141.95</v>
       </c>
-      <c r="I35" s="245" t="n">
+      <c r="I35" s="246" t="n">
         <v>74.95</v>
       </c>
       <c r="J35" s="10" t="n"/>
@@ -5512,18 +5525,18 @@
       <c r="AD45" s="11" t="n"/>
     </row>
     <row r="46" ht="27" customHeight="1" s="232">
-      <c r="A46" s="251" t="n"/>
+      <c r="A46" s="252" t="n"/>
       <c r="B46" s="36" t="n"/>
       <c r="C46" s="134" t="n"/>
       <c r="D46" s="5" t="n"/>
       <c r="E46" s="5" t="n"/>
       <c r="F46" s="135" t="n"/>
       <c r="G46" s="136" t="n"/>
-      <c r="H46" s="252">
+      <c r="H46" s="253">
         <f>NOW()</f>
         <v/>
       </c>
-      <c r="I46" s="253">
+      <c r="I46" s="254">
         <f>NOW()</f>
         <v/>
       </c>
@@ -5607,14 +5620,14 @@
           <t>RULE #1: Limit TRADE$ /ETF /Day to 1.0% of: TOT. PORTFOLIO$ + AVAIL. CASH</t>
         </is>
       </c>
-      <c r="B48" s="254" t="n"/>
-      <c r="C48" s="254" t="n"/>
+      <c r="B48" s="255" t="n"/>
+      <c r="C48" s="255" t="n"/>
       <c r="D48" s="59" t="n"/>
-      <c r="E48" s="254" t="n"/>
-      <c r="F48" s="254" t="n"/>
-      <c r="G48" s="254" t="n"/>
-      <c r="H48" s="254" t="n"/>
-      <c r="I48" s="255" t="n"/>
+      <c r="E48" s="255" t="n"/>
+      <c r="F48" s="255" t="n"/>
+      <c r="G48" s="255" t="n"/>
+      <c r="H48" s="255" t="n"/>
+      <c r="I48" s="256" t="n"/>
       <c r="J48" s="10" t="n"/>
       <c r="K48" s="11" t="n"/>
       <c r="L48" s="11" t="n"/>
@@ -5811,7 +5824,7 @@
           <t>DATE:</t>
         </is>
       </c>
-      <c r="B52" s="256" t="n"/>
+      <c r="B52" s="257" t="n"/>
       <c r="C52" s="76" t="inlineStr">
         <is>
           <t>04/13</t>
@@ -5866,9 +5879,9 @@
         </is>
       </c>
       <c r="T52" s="10" t="n"/>
-      <c r="U52" s="257" t="n"/>
+      <c r="U52" s="258" t="n"/>
       <c r="V52" s="11" t="n"/>
-      <c r="W52" s="257" t="n"/>
+      <c r="W52" s="258" t="n"/>
       <c r="X52" s="11" t="n"/>
       <c r="Y52" s="11" t="n"/>
       <c r="Z52" s="11" t="n"/>
@@ -5883,7 +5896,7 @@
           <t>TIME:</t>
         </is>
       </c>
-      <c r="B53" s="258" t="n"/>
+      <c r="B53" s="259" t="n"/>
       <c r="C53" s="78" t="inlineStr">
         <is>
           <t>@9:53</t>
@@ -5938,7 +5951,7 @@
         </is>
       </c>
       <c r="T53" s="10" t="n"/>
-      <c r="U53" s="257" t="n"/>
+      <c r="U53" s="258" t="n"/>
       <c r="V53" s="11" t="n"/>
       <c r="W53" s="178" t="n"/>
       <c r="X53" s="11" t="n"/>
@@ -5955,7 +5968,7 @@
           <t>SIGNAL:</t>
         </is>
       </c>
-      <c r="B54" s="258" t="n"/>
+      <c r="B54" s="259" t="n"/>
       <c r="C54" s="179" t="inlineStr">
         <is>
           <t>(!BUY!)</t>
@@ -6010,9 +6023,9 @@
         </is>
       </c>
       <c r="T54" s="10" t="n"/>
-      <c r="U54" s="259" t="n"/>
+      <c r="U54" s="260" t="n"/>
       <c r="V54" s="11" t="n"/>
-      <c r="W54" s="260" t="n"/>
+      <c r="W54" s="261" t="n"/>
       <c r="X54" s="11" t="n"/>
       <c r="Y54" s="11" t="n"/>
       <c r="Z54" s="11" t="n"/>
@@ -6028,10 +6041,10 @@
         </is>
       </c>
       <c r="B55" s="165" t="n"/>
-      <c r="C55" s="261" t="n">
+      <c r="C55" s="262" t="n">
         <v>172.3</v>
       </c>
-      <c r="D55" s="261" t="n">
+      <c r="D55" s="262" t="n">
         <v>167.52</v>
       </c>
       <c r="E55" s="176" t="n"/>
@@ -6046,25 +6059,25 @@
       </c>
       <c r="K55" s="188" t="n"/>
       <c r="L55" s="11" t="n"/>
-      <c r="M55" s="262" t="n"/>
-      <c r="N55" s="261" t="n"/>
-      <c r="O55" s="261" t="n"/>
-      <c r="P55" s="261" t="n">
+      <c r="M55" s="263" t="n"/>
+      <c r="N55" s="262" t="n"/>
+      <c r="O55" s="262" t="n"/>
+      <c r="P55" s="262" t="n">
         <v>582.54</v>
       </c>
-      <c r="Q55" s="261" t="n">
+      <c r="Q55" s="262" t="n">
         <v>582.01</v>
       </c>
-      <c r="R55" s="261" t="n">
+      <c r="R55" s="262" t="n">
         <v>581.0700000000001</v>
       </c>
-      <c r="S55" s="261" t="n">
+      <c r="S55" s="262" t="n">
         <v>580.11</v>
       </c>
       <c r="T55" s="10" t="n"/>
-      <c r="U55" s="263" t="n"/>
+      <c r="U55" s="264" t="n"/>
       <c r="V55" s="11" t="n"/>
-      <c r="W55" s="263" t="n"/>
+      <c r="W55" s="264" t="n"/>
       <c r="X55" s="11" t="n"/>
       <c r="Y55" s="11" t="n"/>
       <c r="Z55" s="11" t="n"/>
@@ -6080,10 +6093,10 @@
         </is>
       </c>
       <c r="B56" s="165" t="n"/>
-      <c r="C56" s="264" t="n">
+      <c r="C56" s="265" t="n">
         <v>173.08</v>
       </c>
-      <c r="D56" s="264" t="n">
+      <c r="D56" s="265" t="n">
         <v>161.38</v>
       </c>
       <c r="E56" s="176" t="n"/>
@@ -6098,25 +6111,25 @@
       </c>
       <c r="K56" s="122" t="n"/>
       <c r="L56" s="11" t="n"/>
-      <c r="M56" s="265" t="n"/>
-      <c r="N56" s="264" t="n"/>
-      <c r="O56" s="264" t="n"/>
-      <c r="P56" s="264" t="n">
+      <c r="M56" s="266" t="n"/>
+      <c r="N56" s="265" t="n"/>
+      <c r="O56" s="265" t="n"/>
+      <c r="P56" s="265" t="n">
         <v>593.1</v>
       </c>
-      <c r="Q56" s="264" t="n">
+      <c r="Q56" s="265" t="n">
         <v>596.6900000000001</v>
       </c>
-      <c r="R56" s="264" t="n">
+      <c r="R56" s="265" t="n">
         <v>591.27</v>
       </c>
-      <c r="S56" s="264" t="n">
+      <c r="S56" s="265" t="n">
         <v>625.035</v>
       </c>
       <c r="T56" s="10" t="n"/>
-      <c r="U56" s="263" t="n"/>
+      <c r="U56" s="264" t="n"/>
       <c r="V56" s="11" t="n"/>
-      <c r="W56" s="263" t="n"/>
+      <c r="W56" s="264" t="n"/>
       <c r="X56" s="11" t="n"/>
       <c r="Y56" s="11" t="n"/>
       <c r="Z56" s="11" t="n"/>
@@ -6131,11 +6144,11 @@
           <t>CURRENT:</t>
         </is>
       </c>
-      <c r="B57" s="266" t="n"/>
-      <c r="C57" s="267" t="n">
+      <c r="B57" s="267" t="n"/>
+      <c r="C57" s="268" t="n">
         <v>172.72</v>
       </c>
-      <c r="D57" s="267" t="n">
+      <c r="D57" s="268" t="n">
         <v>158.57</v>
       </c>
       <c r="E57" s="196" t="n"/>
@@ -6146,31 +6159,31 @@
       <c r="J57" s="197" t="n"/>
       <c r="K57" s="116" t="n"/>
       <c r="L57" s="12" t="n"/>
-      <c r="M57" s="268" t="n">
+      <c r="M57" s="269" t="n">
         <v>560.22</v>
       </c>
-      <c r="N57" s="269" t="n">
+      <c r="N57" s="270" t="n">
         <v>548.35</v>
       </c>
-      <c r="O57" s="269" t="n">
+      <c r="O57" s="270" t="n">
         <v>578.8099999999999</v>
       </c>
-      <c r="P57" s="269" t="n">
+      <c r="P57" s="270" t="n">
         <v>591.96</v>
       </c>
-      <c r="Q57" s="269" t="n">
+      <c r="Q57" s="270" t="n">
         <v>598.58</v>
       </c>
-      <c r="R57" s="269" t="n">
+      <c r="R57" s="270" t="n">
         <v>590</v>
       </c>
-      <c r="S57" s="269" t="n">
+      <c r="S57" s="270" t="n">
         <v>618.0599999999999</v>
       </c>
       <c r="T57" s="10" t="n"/>
-      <c r="U57" s="263" t="n"/>
+      <c r="U57" s="264" t="n"/>
       <c r="V57" s="11" t="n"/>
-      <c r="W57" s="263" t="n"/>
+      <c r="W57" s="264" t="n"/>
       <c r="X57" s="11" t="n"/>
       <c r="Y57" s="11" t="n"/>
       <c r="Z57" s="11" t="n"/>
@@ -6217,14 +6230,14 @@
           <t>RULE #2: Before !SELL!, consider $GAIN per Share &amp; Ann. %Return on Share Cost</t>
         </is>
       </c>
-      <c r="B59" s="270" t="n"/>
-      <c r="C59" s="270" t="n"/>
+      <c r="B59" s="271" t="n"/>
+      <c r="C59" s="271" t="n"/>
       <c r="D59" s="202" t="n"/>
       <c r="E59" s="202" t="n"/>
-      <c r="F59" s="270" t="n"/>
-      <c r="G59" s="271" t="n"/>
-      <c r="H59" s="247" t="n"/>
-      <c r="I59" s="246" t="n"/>
+      <c r="F59" s="271" t="n"/>
+      <c r="G59" s="272" t="n"/>
+      <c r="H59" s="248" t="n"/>
+      <c r="I59" s="247" t="n"/>
       <c r="J59" s="10" t="n"/>
       <c r="K59" s="11" t="n"/>
       <c r="L59" s="11" t="n"/>
@@ -6452,8 +6465,8 @@
       <c r="AD65" s="11" t="n"/>
     </row>
     <row r="66" ht="21" customHeight="1" s="232">
-      <c r="A66" s="272" t="n"/>
-      <c r="B66" s="273" t="n"/>
+      <c r="A66" s="273" t="n"/>
+      <c r="B66" s="274" t="n"/>
       <c r="C66" s="15" t="n"/>
       <c r="D66" s="11" t="n"/>
       <c r="E66" s="11" t="n"/>
@@ -6484,8 +6497,8 @@
       <c r="AD66" s="11" t="n"/>
     </row>
     <row r="67" ht="21" customHeight="1" s="232">
-      <c r="A67" s="272" t="n"/>
-      <c r="B67" s="273" t="n"/>
+      <c r="A67" s="273" t="n"/>
+      <c r="B67" s="274" t="n"/>
       <c r="C67" s="15" t="n"/>
       <c r="D67" s="11" t="n"/>
       <c r="E67" s="11" t="n"/>
@@ -6516,8 +6529,8 @@
       <c r="AD67" s="11" t="n"/>
     </row>
     <row r="68" ht="21" customHeight="1" s="232">
-      <c r="A68" s="272" t="n"/>
-      <c r="B68" s="273" t="n"/>
+      <c r="A68" s="273" t="n"/>
+      <c r="B68" s="274" t="n"/>
       <c r="C68" s="15" t="n"/>
       <c r="D68" s="11" t="n"/>
       <c r="E68" s="11" t="n"/>
@@ -6978,8 +6991,8 @@
       <c r="L82" s="11" t="n"/>
       <c r="M82" s="11" t="n"/>
       <c r="N82" s="12" t="n"/>
-      <c r="O82" s="274" t="n"/>
-      <c r="P82" s="274" t="n"/>
+      <c r="O82" s="275" t="n"/>
+      <c r="P82" s="275" t="n"/>
       <c r="Q82" s="15" t="n"/>
       <c r="R82" s="11" t="n"/>
       <c r="S82" s="11" t="n"/>
@@ -7010,8 +7023,8 @@
       <c r="L83" s="11" t="n"/>
       <c r="M83" s="11" t="n"/>
       <c r="N83" s="12" t="n"/>
-      <c r="O83" s="274" t="n"/>
-      <c r="P83" s="274" t="n"/>
+      <c r="O83" s="275" t="n"/>
+      <c r="P83" s="275" t="n"/>
       <c r="Q83" s="15" t="n"/>
       <c r="R83" s="11" t="n"/>
       <c r="S83" s="11" t="n"/>
@@ -7042,8 +7055,8 @@
       <c r="L84" s="11" t="n"/>
       <c r="M84" s="11" t="n"/>
       <c r="N84" s="12" t="n"/>
-      <c r="O84" s="274" t="n"/>
-      <c r="P84" s="274" t="n"/>
+      <c r="O84" s="275" t="n"/>
+      <c r="P84" s="275" t="n"/>
       <c r="Q84" s="15" t="n"/>
       <c r="R84" s="11" t="n"/>
       <c r="S84" s="11" t="n"/>
@@ -7074,8 +7087,8 @@
       <c r="L85" s="11" t="n"/>
       <c r="M85" s="11" t="n"/>
       <c r="N85" s="12" t="n"/>
-      <c r="O85" s="275" t="n"/>
-      <c r="P85" s="275" t="n"/>
+      <c r="O85" s="276" t="n"/>
+      <c r="P85" s="276" t="n"/>
       <c r="Q85" s="15" t="n"/>
       <c r="R85" s="11" t="n"/>
       <c r="S85" s="11" t="n"/>
@@ -7106,8 +7119,8 @@
       <c r="L86" s="11" t="n"/>
       <c r="M86" s="11" t="n"/>
       <c r="N86" s="12" t="n"/>
-      <c r="O86" s="276" t="n"/>
-      <c r="P86" s="276" t="n"/>
+      <c r="O86" s="277" t="n"/>
+      <c r="P86" s="277" t="n"/>
       <c r="Q86" s="15" t="n"/>
       <c r="R86" s="11" t="n"/>
       <c r="S86" s="11" t="n"/>

--- a/src/testTradingPost.xlsx
+++ b/src/testTradingPost.xlsx
@@ -411,7 +411,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -486,14 +486,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor indexed="14"/>
+        <fgColor indexed="16"/>
+        <bgColor indexed="16"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
-        <bgColor indexed="16"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor indexed="14"/>
       </patternFill>
     </fill>
   </fills>
@@ -1303,7 +1309,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2054,6 +2060,9 @@
     </xf>
     <xf numFmtId="166" fontId="14" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3618,18 +3627,22 @@
       </c>
       <c r="F8" s="68" t="inlineStr">
         <is>
-          <t>Consum.</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G8" s="68" t="inlineStr">
         <is>
-          <t>Dividend</t>
-        </is>
-      </c>
-      <c r="H8" s="69" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H8" s="69" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
       <c r="I8" s="68" t="inlineStr">
         <is>
-          <t>Finan-</t>
+          <t>name</t>
         </is>
       </c>
       <c r="J8" s="10" t="n"/>
@@ -3727,37 +3740,37 @@
       <c r="B10" s="238" t="n"/>
       <c r="C10" s="76" t="inlineStr">
         <is>
-          <t>06/27</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="D10" s="76" t="inlineStr">
         <is>
-          <t>06/27</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="E10" s="76" t="inlineStr">
         <is>
-          <t>06/27</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="F10" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="G10" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="H10" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="I10" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="J10" s="10" t="n"/>
@@ -3858,32 +3871,32 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="D12" s="240" t="inlineStr">
+      <c r="D12" s="241" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="E12" s="241" t="inlineStr">
+      <c r="E12" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="F12" s="79" t="inlineStr">
+      <c r="F12" s="241" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="G12" s="80" t="inlineStr">
+      <c r="G12" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="H12" s="81" t="inlineStr">
+      <c r="H12" s="241" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="I12" s="79" t="inlineStr">
+      <c r="I12" s="241" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
@@ -3918,22 +3931,18 @@
       </c>
       <c r="B13" s="71" t="n"/>
       <c r="C13" s="242" t="n">
-        <v>91.08999999999999</v>
-      </c>
-      <c r="D13" s="242" t="n">
-        <v>29.52</v>
-      </c>
+        <v>91.44000000000001</v>
+      </c>
+      <c r="D13" s="242" t="inlineStr"/>
       <c r="E13" s="242" t="n">
-        <v>258.33</v>
-      </c>
-      <c r="F13" s="242" t="n"/>
+        <v>259.49</v>
+      </c>
+      <c r="F13" s="242" t="inlineStr"/>
       <c r="G13" s="242" t="n">
-        <v>154.54</v>
-      </c>
-      <c r="H13" s="242" t="n">
-        <v>110.98</v>
-      </c>
-      <c r="I13" s="242" t="n"/>
+        <v>156.81</v>
+      </c>
+      <c r="H13" s="242" t="inlineStr"/>
+      <c r="I13" s="242" t="inlineStr"/>
       <c r="J13" s="10" t="n"/>
       <c r="K13" s="11" t="n"/>
       <c r="L13" s="11" t="n"/>
@@ -3964,22 +3973,18 @@
       </c>
       <c r="B14" s="71" t="n"/>
       <c r="C14" s="243" t="n">
-        <v>91.37</v>
-      </c>
-      <c r="D14" s="243" t="n">
-        <v>29.81</v>
-      </c>
+        <v>91.48999999999999</v>
+      </c>
+      <c r="D14" s="243" t="inlineStr"/>
       <c r="E14" s="243" t="n">
-        <v>276.24</v>
-      </c>
-      <c r="F14" s="243" t="n"/>
+        <v>277.62</v>
+      </c>
+      <c r="F14" s="243" t="inlineStr"/>
       <c r="G14" s="243" t="n">
-        <v>155.02</v>
-      </c>
-      <c r="H14" s="243" t="n">
-        <v>112.86</v>
-      </c>
-      <c r="I14" s="243" t="n"/>
+        <v>160.3</v>
+      </c>
+      <c r="H14" s="243" t="inlineStr"/>
+      <c r="I14" s="243" t="inlineStr"/>
       <c r="J14" s="10" t="n"/>
       <c r="K14" s="11" t="n"/>
       <c r="L14" s="11" t="n"/>
@@ -4010,25 +4015,25 @@
       </c>
       <c r="B15" s="244" t="n"/>
       <c r="C15" s="245" t="n">
-        <v>91.34</v>
+        <v>91.63</v>
       </c>
       <c r="D15" s="246" t="n">
-        <v>29.65</v>
+        <v>29.62</v>
       </c>
       <c r="E15" s="246" t="n">
-        <v>278.78</v>
+        <v>279.68</v>
       </c>
       <c r="F15" s="246" t="n">
-        <v>192.8</v>
+        <v>192.75</v>
       </c>
       <c r="G15" s="246" t="n">
-        <v>157.27</v>
+        <v>160.79</v>
       </c>
       <c r="H15" s="246" t="n">
-        <v>110.7</v>
+        <v>112.13</v>
       </c>
       <c r="I15" s="246" t="n">
-        <v>79.29000000000001</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="J15" s="10" t="n"/>
       <c r="K15" s="90" t="n"/>
@@ -4165,37 +4170,37 @@
       <c r="B18" s="250" t="n"/>
       <c r="C18" s="103" t="inlineStr">
         <is>
-          <t>Emerging</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D18" s="68" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E18" s="68" t="inlineStr">
         <is>
-          <t>Indust-</t>
+          <t>name</t>
         </is>
       </c>
       <c r="F18" s="103" t="inlineStr">
         <is>
-          <t>Informat.</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G18" s="68" t="inlineStr">
         <is>
-          <t>Mater-</t>
+          <t>name</t>
         </is>
       </c>
       <c r="H18" s="68" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>name</t>
         </is>
       </c>
       <c r="I18" s="68" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>name</t>
         </is>
       </c>
       <c r="J18" s="10" t="n"/>
@@ -4293,37 +4298,37 @@
       <c r="B20" s="250" t="n"/>
       <c r="C20" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="D20" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="E20" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="F20" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="G20" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="H20" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="I20" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="J20" s="10" t="n"/>
@@ -4419,37 +4424,37 @@
         </is>
       </c>
       <c r="B22" s="250" t="n"/>
-      <c r="C22" s="79" t="inlineStr">
+      <c r="C22" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="D22" s="79" t="inlineStr">
+      <c r="D22" s="241" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="E22" s="79" t="inlineStr">
+      <c r="E22" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="F22" s="80" t="inlineStr">
+      <c r="F22" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="G22" s="79" t="inlineStr">
+      <c r="G22" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="H22" s="79" t="inlineStr">
+      <c r="H22" s="241" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="I22" s="80" t="inlineStr">
+      <c r="I22" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
@@ -4483,16 +4488,22 @@
         </is>
       </c>
       <c r="B23" s="250" t="n"/>
-      <c r="C23" s="242" t="n"/>
-      <c r="D23" s="242" t="n"/>
-      <c r="E23" s="242" t="n"/>
+      <c r="C23" s="242" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="D23" s="242" t="inlineStr"/>
+      <c r="E23" s="242" t="n">
+        <v>191.74</v>
+      </c>
       <c r="F23" s="242" t="n">
-        <v>386.79</v>
-      </c>
-      <c r="G23" s="242" t="n"/>
-      <c r="H23" s="242" t="n"/>
+        <v>405.66</v>
+      </c>
+      <c r="G23" s="242" t="n">
+        <v>174.08</v>
+      </c>
+      <c r="H23" s="242" t="inlineStr"/>
       <c r="I23" s="242" t="n">
-        <v>377.77</v>
+        <v>387.23</v>
       </c>
       <c r="J23" s="10" t="n"/>
       <c r="K23" s="11" t="n"/>
@@ -4523,16 +4534,22 @@
         </is>
       </c>
       <c r="B24" s="250" t="n"/>
-      <c r="C24" s="243" t="n"/>
-      <c r="D24" s="243" t="n"/>
-      <c r="E24" s="243" t="n"/>
+      <c r="C24" s="243" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="D24" s="243" t="inlineStr"/>
+      <c r="E24" s="243" t="n">
+        <v>202.57</v>
+      </c>
       <c r="F24" s="243" t="n">
-        <v>420.94</v>
-      </c>
-      <c r="G24" s="243" t="n"/>
-      <c r="H24" s="243" t="n"/>
+        <v>434.42</v>
+      </c>
+      <c r="G24" s="243" t="n">
+        <v>178.44</v>
+      </c>
+      <c r="H24" s="243" t="inlineStr"/>
       <c r="I24" s="243" t="n">
-        <v>388.34</v>
+        <v>401.89</v>
       </c>
       <c r="J24" s="10" t="n"/>
       <c r="K24" s="11" t="n"/>
@@ -4564,25 +4581,25 @@
       </c>
       <c r="B25" s="244" t="n"/>
       <c r="C25" s="246" t="n">
-        <v>40.35</v>
+        <v>40.33</v>
       </c>
       <c r="D25" s="246" t="n">
-        <v>241.14</v>
+        <v>242.65</v>
       </c>
       <c r="E25" s="246" t="n">
-        <v>192.55</v>
+        <v>203.87</v>
       </c>
       <c r="F25" s="246" t="n">
-        <v>424.1</v>
+        <v>435.3</v>
       </c>
       <c r="G25" s="246" t="n">
-        <v>172.98</v>
+        <v>180.51</v>
       </c>
       <c r="H25" s="246" t="n">
-        <v>81.95999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="I25" s="246" t="n">
-        <v>393.26</v>
+        <v>402.51</v>
       </c>
       <c r="J25" s="10" t="n"/>
       <c r="K25" s="11" t="n"/>
@@ -4715,33 +4732,37 @@
       <c r="B28" s="67" t="n"/>
       <c r="C28" s="68" t="inlineStr">
         <is>
-          <t>Comcat.</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D28" s="68" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E28" s="103" t="inlineStr">
         <is>
-          <t>Internatl.</t>
+          <t>name</t>
         </is>
       </c>
       <c r="F28" s="103" t="inlineStr">
         <is>
-          <t>Internatl.</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G28" s="68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Total </t>
-        </is>
-      </c>
-      <c r="H28" s="113" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H28" s="113" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
       <c r="I28" s="68" t="inlineStr">
         <is>
-          <t>Trans-</t>
+          <t>name</t>
         </is>
       </c>
       <c r="J28" s="10" t="n"/>
@@ -4839,37 +4860,37 @@
       <c r="B30" s="238" t="n"/>
       <c r="C30" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="D30" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="E30" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="F30" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="G30" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="H30" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="I30" s="76" t="inlineStr">
         <is>
-          <t>06/02</t>
+          <t>06/29</t>
         </is>
       </c>
       <c r="J30" s="10" t="n"/>
@@ -4965,37 +4986,37 @@
         </is>
       </c>
       <c r="B32" s="239" t="n"/>
-      <c r="C32" s="80" t="inlineStr">
+      <c r="C32" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="D32" s="79" t="inlineStr">
+      <c r="D32" s="241" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="E32" s="79" t="inlineStr">
+      <c r="E32" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="F32" s="79" t="inlineStr">
+      <c r="F32" s="241" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="G32" s="80" t="inlineStr">
+      <c r="G32" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="H32" s="81" t="inlineStr">
+      <c r="H32" s="251" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="I32" s="80" t="inlineStr">
+      <c r="I32" s="240" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
@@ -5030,19 +5051,21 @@
       </c>
       <c r="B33" s="71" t="n"/>
       <c r="C33" s="242" t="n">
-        <v>97.77</v>
-      </c>
-      <c r="D33" s="242" t="n"/>
-      <c r="E33" s="242" t="n"/>
-      <c r="F33" s="242" t="n"/>
+        <v>100.77</v>
+      </c>
+      <c r="D33" s="242" t="inlineStr"/>
+      <c r="E33" s="242" t="n">
+        <v>48.73999999999999</v>
+      </c>
+      <c r="F33" s="242" t="inlineStr"/>
       <c r="G33" s="242" t="n">
-        <v>204.306</v>
+        <v>209.31</v>
       </c>
       <c r="H33" s="242" t="n">
-        <v>142.13</v>
+        <v>141.99</v>
       </c>
       <c r="I33" s="242" t="n">
-        <v>72.13</v>
+        <v>74.69000000000001</v>
       </c>
       <c r="J33" s="10" t="n"/>
       <c r="K33" s="11" t="n"/>
@@ -5074,19 +5097,21 @@
       </c>
       <c r="B34" s="71" t="n"/>
       <c r="C34" s="243" t="n">
-        <v>102.32</v>
-      </c>
-      <c r="D34" s="243" t="n"/>
-      <c r="E34" s="243" t="n"/>
-      <c r="F34" s="243" t="n"/>
+        <v>105.29</v>
+      </c>
+      <c r="D34" s="243" t="inlineStr"/>
+      <c r="E34" s="243" t="n">
+        <v>48.76000000000001</v>
+      </c>
+      <c r="F34" s="243" t="inlineStr"/>
       <c r="G34" s="243" t="n">
-        <v>209.77</v>
+        <v>217.04</v>
       </c>
       <c r="H34" s="243" t="n">
-        <v>147.17</v>
+        <v>145.73</v>
       </c>
       <c r="I34" s="243" t="n">
-        <v>72.73</v>
+        <v>81.27</v>
       </c>
       <c r="J34" s="10" t="n"/>
       <c r="K34" s="11" t="n"/>
@@ -5116,27 +5141,27 @@
           <t>CURRENT:</t>
         </is>
       </c>
-      <c r="B35" s="251" t="n"/>
+      <c r="B35" s="252" t="n"/>
       <c r="C35" s="246" t="n">
-        <v>103.16</v>
+        <v>105.39</v>
       </c>
       <c r="D35" s="246" t="n">
-        <v>72.64</v>
+        <v>72.44</v>
       </c>
       <c r="E35" s="246" t="n">
-        <v>48.74</v>
+        <v>48.81</v>
       </c>
       <c r="F35" s="246" t="n">
-        <v>55.94</v>
+        <v>55.5</v>
       </c>
       <c r="G35" s="246" t="n">
-        <v>212.71</v>
+        <v>218.02</v>
       </c>
       <c r="H35" s="246" t="n">
-        <v>141.95</v>
+        <v>140.63</v>
       </c>
       <c r="I35" s="246" t="n">
-        <v>74.95</v>
+        <v>83.34</v>
       </c>
       <c r="J35" s="10" t="n"/>
       <c r="K35" s="11" t="n"/>
@@ -5525,18 +5550,18 @@
       <c r="AD45" s="11" t="n"/>
     </row>
     <row r="46" ht="27" customHeight="1" s="232">
-      <c r="A46" s="252" t="n"/>
+      <c r="A46" s="253" t="n"/>
       <c r="B46" s="36" t="n"/>
       <c r="C46" s="134" t="n"/>
       <c r="D46" s="5" t="n"/>
       <c r="E46" s="5" t="n"/>
       <c r="F46" s="135" t="n"/>
       <c r="G46" s="136" t="n"/>
-      <c r="H46" s="253">
+      <c r="H46" s="254">
         <f>NOW()</f>
         <v/>
       </c>
-      <c r="I46" s="254">
+      <c r="I46" s="255">
         <f>NOW()</f>
         <v/>
       </c>
@@ -5620,14 +5645,14 @@
           <t>RULE #1: Limit TRADE$ /ETF /Day to 1.0% of: TOT. PORTFOLIO$ + AVAIL. CASH</t>
         </is>
       </c>
-      <c r="B48" s="255" t="n"/>
-      <c r="C48" s="255" t="n"/>
+      <c r="B48" s="256" t="n"/>
+      <c r="C48" s="256" t="n"/>
       <c r="D48" s="59" t="n"/>
-      <c r="E48" s="255" t="n"/>
-      <c r="F48" s="255" t="n"/>
-      <c r="G48" s="255" t="n"/>
-      <c r="H48" s="255" t="n"/>
-      <c r="I48" s="256" t="n"/>
+      <c r="E48" s="256" t="n"/>
+      <c r="F48" s="256" t="n"/>
+      <c r="G48" s="256" t="n"/>
+      <c r="H48" s="256" t="n"/>
+      <c r="I48" s="257" t="n"/>
       <c r="J48" s="10" t="n"/>
       <c r="K48" s="11" t="n"/>
       <c r="L48" s="11" t="n"/>
@@ -5824,7 +5849,7 @@
           <t>DATE:</t>
         </is>
       </c>
-      <c r="B52" s="257" t="n"/>
+      <c r="B52" s="258" t="n"/>
       <c r="C52" s="76" t="inlineStr">
         <is>
           <t>04/13</t>
@@ -5879,9 +5904,9 @@
         </is>
       </c>
       <c r="T52" s="10" t="n"/>
-      <c r="U52" s="258" t="n"/>
+      <c r="U52" s="259" t="n"/>
       <c r="V52" s="11" t="n"/>
-      <c r="W52" s="258" t="n"/>
+      <c r="W52" s="259" t="n"/>
       <c r="X52" s="11" t="n"/>
       <c r="Y52" s="11" t="n"/>
       <c r="Z52" s="11" t="n"/>
@@ -5896,7 +5921,7 @@
           <t>TIME:</t>
         </is>
       </c>
-      <c r="B53" s="259" t="n"/>
+      <c r="B53" s="260" t="n"/>
       <c r="C53" s="78" t="inlineStr">
         <is>
           <t>@9:53</t>
@@ -5951,7 +5976,7 @@
         </is>
       </c>
       <c r="T53" s="10" t="n"/>
-      <c r="U53" s="258" t="n"/>
+      <c r="U53" s="259" t="n"/>
       <c r="V53" s="11" t="n"/>
       <c r="W53" s="178" t="n"/>
       <c r="X53" s="11" t="n"/>
@@ -5968,7 +5993,7 @@
           <t>SIGNAL:</t>
         </is>
       </c>
-      <c r="B54" s="259" t="n"/>
+      <c r="B54" s="260" t="n"/>
       <c r="C54" s="179" t="inlineStr">
         <is>
           <t>(!BUY!)</t>
@@ -6023,9 +6048,9 @@
         </is>
       </c>
       <c r="T54" s="10" t="n"/>
-      <c r="U54" s="260" t="n"/>
+      <c r="U54" s="261" t="n"/>
       <c r="V54" s="11" t="n"/>
-      <c r="W54" s="261" t="n"/>
+      <c r="W54" s="262" t="n"/>
       <c r="X54" s="11" t="n"/>
       <c r="Y54" s="11" t="n"/>
       <c r="Z54" s="11" t="n"/>
@@ -6041,10 +6066,10 @@
         </is>
       </c>
       <c r="B55" s="165" t="n"/>
-      <c r="C55" s="262" t="n">
+      <c r="C55" s="263" t="n">
         <v>172.3</v>
       </c>
-      <c r="D55" s="262" t="n">
+      <c r="D55" s="263" t="n">
         <v>167.52</v>
       </c>
       <c r="E55" s="176" t="n"/>
@@ -6059,25 +6084,25 @@
       </c>
       <c r="K55" s="188" t="n"/>
       <c r="L55" s="11" t="n"/>
-      <c r="M55" s="263" t="n"/>
-      <c r="N55" s="262" t="n"/>
-      <c r="O55" s="262" t="n"/>
-      <c r="P55" s="262" t="n">
+      <c r="M55" s="264" t="n"/>
+      <c r="N55" s="263" t="n"/>
+      <c r="O55" s="263" t="n"/>
+      <c r="P55" s="263" t="n">
         <v>582.54</v>
       </c>
-      <c r="Q55" s="262" t="n">
+      <c r="Q55" s="263" t="n">
         <v>582.01</v>
       </c>
-      <c r="R55" s="262" t="n">
+      <c r="R55" s="263" t="n">
         <v>581.0700000000001</v>
       </c>
-      <c r="S55" s="262" t="n">
+      <c r="S55" s="263" t="n">
         <v>580.11</v>
       </c>
       <c r="T55" s="10" t="n"/>
-      <c r="U55" s="264" t="n"/>
+      <c r="U55" s="265" t="n"/>
       <c r="V55" s="11" t="n"/>
-      <c r="W55" s="264" t="n"/>
+      <c r="W55" s="265" t="n"/>
       <c r="X55" s="11" t="n"/>
       <c r="Y55" s="11" t="n"/>
       <c r="Z55" s="11" t="n"/>
@@ -6093,10 +6118,10 @@
         </is>
       </c>
       <c r="B56" s="165" t="n"/>
-      <c r="C56" s="265" t="n">
+      <c r="C56" s="266" t="n">
         <v>173.08</v>
       </c>
-      <c r="D56" s="265" t="n">
+      <c r="D56" s="266" t="n">
         <v>161.38</v>
       </c>
       <c r="E56" s="176" t="n"/>
@@ -6111,25 +6136,25 @@
       </c>
       <c r="K56" s="122" t="n"/>
       <c r="L56" s="11" t="n"/>
-      <c r="M56" s="266" t="n"/>
-      <c r="N56" s="265" t="n"/>
-      <c r="O56" s="265" t="n"/>
-      <c r="P56" s="265" t="n">
+      <c r="M56" s="267" t="n"/>
+      <c r="N56" s="266" t="n"/>
+      <c r="O56" s="266" t="n"/>
+      <c r="P56" s="266" t="n">
         <v>593.1</v>
       </c>
-      <c r="Q56" s="265" t="n">
+      <c r="Q56" s="266" t="n">
         <v>596.6900000000001</v>
       </c>
-      <c r="R56" s="265" t="n">
+      <c r="R56" s="266" t="n">
         <v>591.27</v>
       </c>
-      <c r="S56" s="265" t="n">
+      <c r="S56" s="266" t="n">
         <v>625.035</v>
       </c>
       <c r="T56" s="10" t="n"/>
-      <c r="U56" s="264" t="n"/>
+      <c r="U56" s="265" t="n"/>
       <c r="V56" s="11" t="n"/>
-      <c r="W56" s="264" t="n"/>
+      <c r="W56" s="265" t="n"/>
       <c r="X56" s="11" t="n"/>
       <c r="Y56" s="11" t="n"/>
       <c r="Z56" s="11" t="n"/>
@@ -6144,11 +6169,11 @@
           <t>CURRENT:</t>
         </is>
       </c>
-      <c r="B57" s="267" t="n"/>
-      <c r="C57" s="268" t="n">
+      <c r="B57" s="268" t="n"/>
+      <c r="C57" s="269" t="n">
         <v>172.72</v>
       </c>
-      <c r="D57" s="268" t="n">
+      <c r="D57" s="269" t="n">
         <v>158.57</v>
       </c>
       <c r="E57" s="196" t="n"/>
@@ -6159,31 +6184,31 @@
       <c r="J57" s="197" t="n"/>
       <c r="K57" s="116" t="n"/>
       <c r="L57" s="12" t="n"/>
-      <c r="M57" s="269" t="n">
+      <c r="M57" s="270" t="n">
         <v>560.22</v>
       </c>
-      <c r="N57" s="270" t="n">
+      <c r="N57" s="271" t="n">
         <v>548.35</v>
       </c>
-      <c r="O57" s="270" t="n">
+      <c r="O57" s="271" t="n">
         <v>578.8099999999999</v>
       </c>
-      <c r="P57" s="270" t="n">
+      <c r="P57" s="271" t="n">
         <v>591.96</v>
       </c>
-      <c r="Q57" s="270" t="n">
+      <c r="Q57" s="271" t="n">
         <v>598.58</v>
       </c>
-      <c r="R57" s="270" t="n">
+      <c r="R57" s="271" t="n">
         <v>590</v>
       </c>
-      <c r="S57" s="270" t="n">
+      <c r="S57" s="271" t="n">
         <v>618.0599999999999</v>
       </c>
       <c r="T57" s="10" t="n"/>
-      <c r="U57" s="264" t="n"/>
+      <c r="U57" s="265" t="n"/>
       <c r="V57" s="11" t="n"/>
-      <c r="W57" s="264" t="n"/>
+      <c r="W57" s="265" t="n"/>
       <c r="X57" s="11" t="n"/>
       <c r="Y57" s="11" t="n"/>
       <c r="Z57" s="11" t="n"/>
@@ -6230,12 +6255,12 @@
           <t>RULE #2: Before !SELL!, consider $GAIN per Share &amp; Ann. %Return on Share Cost</t>
         </is>
       </c>
-      <c r="B59" s="271" t="n"/>
-      <c r="C59" s="271" t="n"/>
+      <c r="B59" s="272" t="n"/>
+      <c r="C59" s="272" t="n"/>
       <c r="D59" s="202" t="n"/>
       <c r="E59" s="202" t="n"/>
-      <c r="F59" s="271" t="n"/>
-      <c r="G59" s="272" t="n"/>
+      <c r="F59" s="272" t="n"/>
+      <c r="G59" s="273" t="n"/>
       <c r="H59" s="248" t="n"/>
       <c r="I59" s="247" t="n"/>
       <c r="J59" s="10" t="n"/>
@@ -6465,8 +6490,8 @@
       <c r="AD65" s="11" t="n"/>
     </row>
     <row r="66" ht="21" customHeight="1" s="232">
-      <c r="A66" s="273" t="n"/>
-      <c r="B66" s="274" t="n"/>
+      <c r="A66" s="274" t="n"/>
+      <c r="B66" s="275" t="n"/>
       <c r="C66" s="15" t="n"/>
       <c r="D66" s="11" t="n"/>
       <c r="E66" s="11" t="n"/>
@@ -6497,8 +6522,8 @@
       <c r="AD66" s="11" t="n"/>
     </row>
     <row r="67" ht="21" customHeight="1" s="232">
-      <c r="A67" s="273" t="n"/>
-      <c r="B67" s="274" t="n"/>
+      <c r="A67" s="274" t="n"/>
+      <c r="B67" s="275" t="n"/>
       <c r="C67" s="15" t="n"/>
       <c r="D67" s="11" t="n"/>
       <c r="E67" s="11" t="n"/>
@@ -6529,8 +6554,8 @@
       <c r="AD67" s="11" t="n"/>
     </row>
     <row r="68" ht="21" customHeight="1" s="232">
-      <c r="A68" s="273" t="n"/>
-      <c r="B68" s="274" t="n"/>
+      <c r="A68" s="274" t="n"/>
+      <c r="B68" s="275" t="n"/>
       <c r="C68" s="15" t="n"/>
       <c r="D68" s="11" t="n"/>
       <c r="E68" s="11" t="n"/>
@@ -6991,8 +7016,8 @@
       <c r="L82" s="11" t="n"/>
       <c r="M82" s="11" t="n"/>
       <c r="N82" s="12" t="n"/>
-      <c r="O82" s="275" t="n"/>
-      <c r="P82" s="275" t="n"/>
+      <c r="O82" s="276" t="n"/>
+      <c r="P82" s="276" t="n"/>
       <c r="Q82" s="15" t="n"/>
       <c r="R82" s="11" t="n"/>
       <c r="S82" s="11" t="n"/>
@@ -7023,8 +7048,8 @@
       <c r="L83" s="11" t="n"/>
       <c r="M83" s="11" t="n"/>
       <c r="N83" s="12" t="n"/>
-      <c r="O83" s="275" t="n"/>
-      <c r="P83" s="275" t="n"/>
+      <c r="O83" s="276" t="n"/>
+      <c r="P83" s="276" t="n"/>
       <c r="Q83" s="15" t="n"/>
       <c r="R83" s="11" t="n"/>
       <c r="S83" s="11" t="n"/>
@@ -7055,8 +7080,8 @@
       <c r="L84" s="11" t="n"/>
       <c r="M84" s="11" t="n"/>
       <c r="N84" s="12" t="n"/>
-      <c r="O84" s="275" t="n"/>
-      <c r="P84" s="275" t="n"/>
+      <c r="O84" s="276" t="n"/>
+      <c r="P84" s="276" t="n"/>
       <c r="Q84" s="15" t="n"/>
       <c r="R84" s="11" t="n"/>
       <c r="S84" s="11" t="n"/>
@@ -7087,8 +7112,8 @@
       <c r="L85" s="11" t="n"/>
       <c r="M85" s="11" t="n"/>
       <c r="N85" s="12" t="n"/>
-      <c r="O85" s="276" t="n"/>
-      <c r="P85" s="276" t="n"/>
+      <c r="O85" s="277" t="n"/>
+      <c r="P85" s="277" t="n"/>
       <c r="Q85" s="15" t="n"/>
       <c r="R85" s="11" t="n"/>
       <c r="S85" s="11" t="n"/>
@@ -7119,8 +7144,8 @@
       <c r="L86" s="11" t="n"/>
       <c r="M86" s="11" t="n"/>
       <c r="N86" s="12" t="n"/>
-      <c r="O86" s="277" t="n"/>
-      <c r="P86" s="277" t="n"/>
+      <c r="O86" s="278" t="n"/>
+      <c r="P86" s="278" t="n"/>
       <c r="Q86" s="15" t="n"/>
       <c r="R86" s="11" t="n"/>
       <c r="S86" s="11" t="n"/>
